--- a/Other/Exploratory search/Venues.xlsx
+++ b/Other/Exploratory search/Venues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Other/Exploratory search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B59AC96-0E53-C849-A5BF-E53BB45F992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93936375-1BF0-E746-81F6-4549881D55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" activeTab="3" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="2118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="2117">
   <si>
     <t>CIKM</t>
   </si>
@@ -6350,9 +6350,6 @@
   </si>
   <si>
     <t>North American Chapter of the Association for Computational Linguistics (NAACL)</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>SELECTION (REVISITED)</t>
@@ -6468,21 +6465,6 @@
   <si>
     <r>
       <t xml:space="preserve">SELECTED CONFERENCES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Sorted by rating)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECTED JOURNALS </t>
     </r>
     <r>
       <rPr>
@@ -6571,7 +6553,76 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ACL Conferences </t>
+    <r>
+      <t xml:space="preserve">ACL Conferences </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Cut-off at rating below</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECTED JOURNALS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sorted by rating)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Selection based on Q3 = 1,479)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6579,7 +6630,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -6755,7 +6806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6792,22 +6843,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6818,26 +6863,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7156,7 +7198,7 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17132,8 +17174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5876F606-540E-FE4D-BB47-CC941F3C00E4}">
   <dimension ref="A1:AD793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" topLeftCell="R10" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17172,7 +17214,7 @@
         <v>597</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>1158</v>
@@ -17181,7 +17223,7 @@
         <v>2096</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="V1" s="13" t="s">
         <v>1158</v>
@@ -17190,7 +17232,7 @@
         <v>2096</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17" thickBot="1">
@@ -17227,23 +17269,23 @@
       <c r="P2" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" s="44">
+      <c r="Q2" s="38">
         <v>201</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="39">
         <v>1.4790000000000001</v>
       </c>
       <c r="U2" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="44">
+      <c r="V2" s="38">
         <v>45</v>
       </c>
-      <c r="W2" s="45">
+      <c r="W2" s="39">
         <v>1.871</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="AB2" s="13" t="s">
         <v>1158</v>
@@ -17286,25 +17328,25 @@
       <c r="P3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3">
         <v>135</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="40">
         <v>1.075</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3">
         <v>30</v>
       </c>
-      <c r="W3" s="47">
+      <c r="W3" s="41">
         <v>1.827</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="AB3" s="44">
+      <c r="AB3" s="38">
         <v>45</v>
       </c>
       <c r="AC3" s="18">
@@ -17345,28 +17387,28 @@
       <c r="P4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4">
         <v>134</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="40">
         <v>1.214</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4">
         <v>92</v>
       </c>
-      <c r="W4" s="46">
+      <c r="W4" s="40">
         <v>1.758</v>
       </c>
-      <c r="Z4" s="65" t="s">
-        <v>2110</v>
-      </c>
-      <c r="AA4" s="21" t="s">
+      <c r="Z4" s="53" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AA4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="AB4" s="38">
+      <c r="AB4">
         <v>30</v>
       </c>
       <c r="AC4" s="22">
@@ -17407,25 +17449,25 @@
       <c r="P5" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5">
         <v>132</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="40">
         <v>1.6739999999999999</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5">
         <v>33</v>
       </c>
-      <c r="W5" s="47">
+      <c r="W5" s="41">
         <v>1.7290000000000001</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" s="38">
+      <c r="AB5">
         <v>92</v>
       </c>
       <c r="AC5" s="22">
@@ -17466,25 +17508,26 @@
       <c r="P6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6">
         <v>132</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="41">
         <v>0.44900000000000001</v>
       </c>
       <c r="U6" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6">
         <v>132</v>
       </c>
-      <c r="W6" s="46">
+      <c r="W6" s="40">
         <v>1.6739999999999999</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="AB6" s="38">
+      <c r="AB6">
         <v>33</v>
       </c>
       <c r="AC6" s="22">
@@ -17525,25 +17568,25 @@
       <c r="P7" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="16">
         <v>124</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="40">
         <v>1.198</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7">
         <v>201</v>
       </c>
-      <c r="W7" s="46">
+      <c r="W7" s="40">
         <v>1.4790000000000001</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AB7" s="38">
+      <c r="AB7">
         <v>132</v>
       </c>
       <c r="AC7" s="22">
@@ -17584,25 +17627,25 @@
       <c r="P8" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8">
         <v>92</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="40">
         <v>1.758</v>
       </c>
       <c r="U8" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8">
         <v>39</v>
       </c>
-      <c r="W8" s="46">
+      <c r="W8" s="40">
         <v>1.4139999999999999</v>
       </c>
-      <c r="AA8" s="29" t="s">
+      <c r="AA8" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="AB8" s="48">
+      <c r="AB8" s="42">
         <v>201</v>
       </c>
       <c r="AC8" s="30">
@@ -17637,19 +17680,19 @@
       <c r="P9" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9">
         <v>65</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="41">
         <v>0.435</v>
       </c>
       <c r="U9" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9">
         <v>30</v>
       </c>
-      <c r="W9" s="47">
+      <c r="W9" s="41">
         <v>1.363</v>
       </c>
     </row>
@@ -17681,23 +17724,23 @@
       <c r="P10" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10">
         <v>64</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="41">
         <v>0.79600000000000004</v>
       </c>
       <c r="U10" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10">
         <v>53</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10" s="40">
         <v>1.278</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="AB10" s="13" t="s">
         <v>1158</v>
@@ -17740,28 +17783,28 @@
       <c r="P11" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11">
         <v>64</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="41">
         <v>0.59799999999999998</v>
       </c>
       <c r="U11" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11">
         <v>134</v>
       </c>
-      <c r="W11" s="46">
+      <c r="W11" s="40">
         <v>1.214</v>
       </c>
-      <c r="AA11" s="58" t="s">
+      <c r="AA11" s="49" t="s">
         <v>1159</v>
       </c>
-      <c r="AB11" s="66">
+      <c r="AB11" s="54">
         <v>32</v>
       </c>
-      <c r="AC11" s="44" t="s">
+      <c r="AC11" s="38" t="s">
         <v>2093</v>
       </c>
       <c r="AD11" s="18" t="s">
@@ -17772,28 +17815,28 @@
       <c r="P12" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="16">
         <v>56</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="41">
         <v>0.93</v>
       </c>
       <c r="U12" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V12" s="16">
         <v>124</v>
       </c>
-      <c r="W12" s="46">
+      <c r="W12" s="40">
         <v>1.198</v>
       </c>
-      <c r="AA12" s="42" t="s">
+      <c r="AA12" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="AB12" s="67">
+      <c r="AB12" s="55">
         <v>25</v>
       </c>
-      <c r="AC12" s="38" t="s">
+      <c r="AC12" t="s">
         <v>2093</v>
       </c>
       <c r="AD12" s="22" t="s">
@@ -17804,28 +17847,28 @@
       <c r="P13" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13">
         <v>54</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="41">
         <v>0.77500000000000002</v>
       </c>
       <c r="U13" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="V13" s="38">
+      <c r="V13">
         <v>135</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13" s="40">
         <v>1.075</v>
       </c>
-      <c r="AA13" s="42" t="s">
+      <c r="AA13" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="AB13" s="67" t="s">
-        <v>2111</v>
-      </c>
-      <c r="AC13" s="38" t="s">
+      <c r="AB13" s="55" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AC13" t="s">
         <v>2093</v>
       </c>
       <c r="AD13" s="22" t="s">
@@ -17860,28 +17903,28 @@
       <c r="P14" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14">
         <v>53</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="40">
         <v>1.278</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="V14" s="37">
+      <c r="V14" s="16">
         <v>56</v>
       </c>
-      <c r="W14" s="47">
+      <c r="W14" s="41">
         <v>0.93</v>
       </c>
-      <c r="AA14" s="42" t="s">
+      <c r="AA14" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="AB14" s="67">
+      <c r="AB14" s="55">
         <v>43</v>
       </c>
-      <c r="AC14" s="38" t="s">
+      <c r="AC14" t="s">
         <v>2086</v>
       </c>
       <c r="AD14" s="22" t="s">
@@ -17916,28 +17959,28 @@
       <c r="P15" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15">
         <v>48</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="41">
         <v>0.78400000000000003</v>
       </c>
       <c r="U15" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="V15" s="37">
+      <c r="V15" s="16">
         <v>30</v>
       </c>
-      <c r="W15" s="47">
+      <c r="W15" s="41">
         <v>0.80600000000000005</v>
       </c>
-      <c r="AA15" s="42" t="s">
+      <c r="AA15" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AB15" s="67" t="s">
-        <v>2112</v>
-      </c>
-      <c r="AC15" s="38" t="s">
+      <c r="AB15" s="55" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AC15" t="s">
         <v>2086</v>
       </c>
       <c r="AD15" s="22" t="s">
@@ -17963,37 +18006,37 @@
       <c r="H16">
         <v>31</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="37">
         <v>31</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16">
         <v>45</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="40">
         <v>1.871</v>
       </c>
       <c r="U16" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16">
         <v>64</v>
       </c>
-      <c r="W16" s="47">
+      <c r="W16" s="41">
         <v>0.79600000000000004</v>
       </c>
-      <c r="AA16" s="42" t="s">
+      <c r="AA16" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="AB16" s="67" t="s">
-        <v>2113</v>
-      </c>
-      <c r="AC16" s="38" t="s">
+      <c r="AB16" s="55" t="s">
+        <v>2111</v>
+      </c>
+      <c r="AC16" t="s">
         <v>2086</v>
       </c>
       <c r="AD16" s="22" t="s">
@@ -18028,28 +18071,28 @@
       <c r="P17" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17">
         <v>39</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="40">
         <v>1.4139999999999999</v>
       </c>
       <c r="U17" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17">
         <v>48</v>
       </c>
-      <c r="W17" s="47">
+      <c r="W17" s="41">
         <v>0.78400000000000003</v>
       </c>
-      <c r="AA17" s="21" t="s">
-        <v>2102</v>
-      </c>
-      <c r="AB17" s="38">
+      <c r="AA17" s="23" t="s">
+        <v>2101</v>
+      </c>
+      <c r="AB17">
         <v>21</v>
       </c>
-      <c r="AC17" s="38" t="s">
+      <c r="AC17" t="s">
         <v>2086</v>
       </c>
       <c r="AD17" s="22" t="s">
@@ -18081,31 +18124,32 @@
       <c r="K18">
         <v>30</v>
       </c>
+      <c r="N18" s="36"/>
       <c r="P18" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="16">
         <v>39</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="41">
         <v>0.77100000000000002</v>
       </c>
       <c r="U18" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18">
         <v>54</v>
       </c>
-      <c r="W18" s="47">
+      <c r="W18" s="41">
         <v>0.77500000000000002</v>
       </c>
-      <c r="AA18" s="42" t="s">
+      <c r="AA18" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="AB18" s="67" t="s">
-        <v>2114</v>
-      </c>
-      <c r="AC18" s="38" t="s">
+      <c r="AB18" s="55" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AC18" t="s">
         <v>2086</v>
       </c>
       <c r="AD18" s="22" t="s">
@@ -18137,31 +18181,32 @@
       <c r="K19">
         <v>29</v>
       </c>
+      <c r="N19" s="36"/>
       <c r="P19" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19">
         <v>33</v>
       </c>
-      <c r="R19" s="47">
+      <c r="R19" s="41">
         <v>0.54400000000000004</v>
       </c>
       <c r="U19" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="16">
         <v>39</v>
       </c>
-      <c r="W19" s="47">
+      <c r="W19" s="41">
         <v>0.77100000000000002</v>
       </c>
-      <c r="AA19" s="42" t="s">
+      <c r="AA19" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="AB19" s="67" t="s">
-        <v>2115</v>
-      </c>
-      <c r="AC19" s="38" t="s">
+      <c r="AB19" s="55" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AC19" t="s">
         <v>2086</v>
       </c>
       <c r="AD19" s="22" t="s">
@@ -18193,38 +18238,39 @@
       <c r="K20">
         <v>26</v>
       </c>
+      <c r="N20" s="36"/>
       <c r="P20" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20">
         <v>33</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="41">
         <v>1.7290000000000001</v>
       </c>
       <c r="U20" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20">
         <v>30</v>
       </c>
-      <c r="W20" s="47">
+      <c r="W20" s="41">
         <v>0.73899999999999999</v>
       </c>
-      <c r="AA20" s="59" t="s">
+      <c r="AA20" s="46" t="s">
         <v>2085</v>
       </c>
-      <c r="AB20" s="68">
+      <c r="AB20" s="56">
         <v>40</v>
       </c>
-      <c r="AC20" s="48" t="s">
+      <c r="AC20" s="42" t="s">
         <v>2086</v>
       </c>
       <c r="AD20" s="30" t="s">
         <v>2089</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" ht="17" thickBot="1">
       <c r="A21" s="16" t="s">
         <v>624</v>
       </c>
@@ -18249,27 +18295,26 @@
       <c r="K21">
         <v>25</v>
       </c>
+      <c r="N21" s="36"/>
       <c r="P21" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="16">
         <v>30</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="41">
         <v>0.80600000000000005</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="V21" s="38">
+      <c r="V21">
         <v>64</v>
       </c>
-      <c r="W21" s="47">
+      <c r="W21" s="41">
         <v>0.59799999999999998</v>
       </c>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="64"/>
+      <c r="AC21" s="52"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" t="s">
@@ -18296,29 +18341,39 @@
       <c r="K22">
         <v>24</v>
       </c>
+      <c r="N22" s="36"/>
       <c r="P22" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22">
         <v>30</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="41">
         <v>1.827</v>
       </c>
       <c r="U22" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22">
         <v>33</v>
       </c>
-      <c r="W22" s="47">
+      <c r="W22" s="41">
         <v>0.54400000000000004</v>
       </c>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="63"/>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AA22" s="19" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AB22" s="38">
+        <v>40</v>
+      </c>
+      <c r="AC22" s="38" t="s">
+        <v>2086</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="17" thickBot="1">
       <c r="A23" t="s">
         <v>1168</v>
       </c>
@@ -18346,24 +18401,33 @@
       <c r="P23" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23">
         <v>30</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="41">
         <v>1.363</v>
       </c>
       <c r="U23" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23">
         <v>132</v>
       </c>
-      <c r="W23" s="47">
+      <c r="W23" s="41">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="63"/>
+      <c r="AA23" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB23" s="42">
+        <v>11</v>
+      </c>
+      <c r="AC23" s="42" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AD23" s="30" t="s">
+        <v>2092</v>
+      </c>
     </row>
     <row r="24" spans="1:30" ht="17" thickBot="1">
       <c r="A24" t="s">
@@ -18393,19 +18457,19 @@
       <c r="P24" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="42">
         <v>30</v>
       </c>
-      <c r="R24" s="49">
+      <c r="R24" s="43">
         <v>0.73899999999999999</v>
       </c>
       <c r="U24" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="V24" s="48">
+      <c r="V24" s="42">
         <v>65</v>
       </c>
-      <c r="W24" s="49">
+      <c r="W24" s="43">
         <v>0.435</v>
       </c>
     </row>
@@ -18461,7 +18525,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>1158</v>
@@ -18473,7 +18537,7 @@
         <v>2087</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="V26" s="13" t="s">
         <v>1158</v>
@@ -18513,28 +18577,27 @@
       <c r="P27" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="Q27" s="50">
+      <c r="Q27" s="44">
         <v>43</v>
       </c>
-      <c r="R27" s="44" t="s">
+      <c r="R27" s="38" t="s">
         <v>2086</v>
       </c>
       <c r="S27" s="18" t="s">
         <v>2088</v>
       </c>
-      <c r="U27" s="55" t="s">
+      <c r="U27" s="49" t="s">
         <v>1159</v>
       </c>
-      <c r="V27" s="56">
+      <c r="V27" s="50">
         <v>32</v>
       </c>
-      <c r="W27" s="44" t="s">
+      <c r="W27" s="38" t="s">
         <v>2093</v>
       </c>
       <c r="X27" s="18" t="s">
         <v>2092</v>
       </c>
-      <c r="Y27" s="41"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" t="s">
@@ -18564,10 +18627,10 @@
       <c r="P28" s="23" t="s">
         <v>2085</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="16">
         <v>40</v>
       </c>
-      <c r="R28" s="38" t="s">
+      <c r="R28" t="s">
         <v>2086</v>
       </c>
       <c r="S28" s="22" t="s">
@@ -18576,16 +18639,15 @@
       <c r="U28" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="V28" s="39">
+      <c r="V28" s="14">
         <v>25</v>
       </c>
-      <c r="W28" s="38" t="s">
+      <c r="W28" t="s">
         <v>2093</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="Y28" s="41"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" t="s">
@@ -18615,10 +18677,10 @@
       <c r="P29" s="21" t="s">
         <v>2090</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29">
         <v>40</v>
       </c>
-      <c r="R29" s="38" t="s">
+      <c r="R29" t="s">
         <v>2086</v>
       </c>
       <c r="S29" s="22" t="s">
@@ -18627,16 +18689,15 @@
       <c r="U29" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="V29" s="39">
+      <c r="V29" s="14">
         <v>43</v>
       </c>
-      <c r="W29" s="38" t="s">
+      <c r="W29" t="s">
         <v>2086</v>
       </c>
       <c r="X29" s="22" t="s">
         <v>2088</v>
       </c>
-      <c r="Y29" s="41"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" t="s">
@@ -18666,28 +18727,27 @@
       <c r="P30" s="23" t="s">
         <v>1159</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="16">
         <v>32</v>
       </c>
-      <c r="R30" s="38" t="s">
+      <c r="R30" t="s">
         <v>2093</v>
       </c>
       <c r="S30" s="22" t="s">
         <v>2092</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>2102</v>
-      </c>
-      <c r="V30" s="38">
+        <v>2101</v>
+      </c>
+      <c r="V30">
         <v>21</v>
       </c>
-      <c r="W30" s="38" t="s">
+      <c r="W30" t="s">
         <v>2086</v>
       </c>
       <c r="X30" s="22" t="s">
         <v>2086</v>
       </c>
-      <c r="Y30" s="41"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" t="s">
@@ -18717,10 +18777,10 @@
       <c r="P31" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="14">
         <v>25</v>
       </c>
-      <c r="R31" s="38" t="s">
+      <c r="R31" t="s">
         <v>2093</v>
       </c>
       <c r="S31" s="22" t="s">
@@ -18729,16 +18789,15 @@
       <c r="U31" s="23" t="s">
         <v>2085</v>
       </c>
-      <c r="V31" s="37">
+      <c r="V31" s="16">
         <v>40</v>
       </c>
-      <c r="W31" s="38" t="s">
+      <c r="W31" t="s">
         <v>2086</v>
       </c>
       <c r="X31" s="22" t="s">
         <v>2089</v>
       </c>
-      <c r="Y31" s="41"/>
     </row>
     <row r="32" spans="1:30" ht="17" thickBot="1">
       <c r="A32" t="s">
@@ -18766,12 +18825,12 @@
         <v>19</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>2102</v>
-      </c>
-      <c r="Q32" s="48">
+        <v>2101</v>
+      </c>
+      <c r="Q32" s="42">
         <v>21</v>
       </c>
-      <c r="R32" s="48" t="s">
+      <c r="R32" s="42" t="s">
         <v>2086</v>
       </c>
       <c r="S32" s="30" t="s">
@@ -18780,16 +18839,15 @@
       <c r="U32" s="29" t="s">
         <v>2090</v>
       </c>
-      <c r="V32" s="48">
+      <c r="V32" s="42">
         <v>40</v>
       </c>
-      <c r="W32" s="48" t="s">
+      <c r="W32" s="42" t="s">
         <v>2086</v>
       </c>
       <c r="X32" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="Y32" s="41"/>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
@@ -18816,10 +18874,6 @@
       <c r="K33">
         <v>19</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
     </row>
     <row r="34" spans="1:29" ht="17" thickBot="1">
       <c r="A34" t="s">
@@ -18847,10 +18901,10 @@
         <v>18</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -18881,31 +18935,28 @@
       <c r="P35" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="Q35" s="54">
+      <c r="Q35" s="48">
         <v>39</v>
       </c>
-      <c r="R35" s="44" t="s">
+      <c r="R35" s="38" t="s">
         <v>2086</v>
       </c>
       <c r="S35" s="18" t="s">
         <v>2088</v>
       </c>
-      <c r="U35" s="55" t="s">
+      <c r="U35" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="V35" s="56">
+      <c r="V35" s="50">
         <v>23</v>
       </c>
-      <c r="W35" s="44" t="s">
+      <c r="W35" s="38" t="s">
         <v>2093</v>
       </c>
       <c r="X35" s="18" t="s">
         <v>2092</v>
       </c>
-      <c r="Y35" s="41"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="64"/>
+      <c r="AC35" s="52"/>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" t="s">
@@ -18935,31 +18986,28 @@
       <c r="P36" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="16">
         <v>23</v>
       </c>
-      <c r="R36" s="38" t="s">
+      <c r="R36" t="s">
         <v>2093</v>
       </c>
       <c r="S36" s="22" t="s">
         <v>2092</v>
       </c>
-      <c r="U36" s="42" t="s">
+      <c r="U36" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="V36" s="41">
+      <c r="V36">
         <v>39</v>
       </c>
-      <c r="W36" s="38" t="s">
+      <c r="W36" t="s">
         <v>2086</v>
       </c>
       <c r="X36" s="22" t="s">
         <v>2088</v>
       </c>
-      <c r="Y36" s="41"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="64"/>
+      <c r="AC36" s="52"/>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" t="s">
@@ -18989,10 +19037,10 @@
       <c r="P37" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="16">
         <v>17</v>
       </c>
-      <c r="R37" s="38" t="s">
+      <c r="R37" t="s">
         <v>2086</v>
       </c>
       <c r="S37" s="22" t="s">
@@ -19001,16 +19049,15 @@
       <c r="U37" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="V37" s="37">
+      <c r="V37" s="16">
         <v>14</v>
       </c>
-      <c r="W37" s="38" t="s">
+      <c r="W37" t="s">
         <v>2086</v>
       </c>
       <c r="X37" s="22" t="s">
         <v>2088</v>
       </c>
-      <c r="Y37" s="41"/>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" t="s">
@@ -19040,10 +19087,10 @@
       <c r="P38" s="23" t="s">
         <v>2099</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="16">
         <v>14</v>
       </c>
-      <c r="R38" s="38" t="s">
+      <c r="R38" t="s">
         <v>2086</v>
       </c>
       <c r="S38" s="22" t="s">
@@ -19052,16 +19099,15 @@
       <c r="U38" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="V38" s="37">
+      <c r="V38" s="16">
         <v>17</v>
       </c>
-      <c r="W38" s="38" t="s">
+      <c r="W38" t="s">
         <v>2086</v>
       </c>
       <c r="X38" s="22" t="s">
         <v>2086</v>
       </c>
-      <c r="Y38" s="41"/>
     </row>
     <row r="39" spans="1:29" ht="17" thickBot="1">
       <c r="A39" t="s">
@@ -19088,31 +19134,30 @@
       <c r="K39">
         <v>17</v>
       </c>
-      <c r="P39" s="23" t="s">
+      <c r="P39" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="47">
         <v>11</v>
       </c>
-      <c r="R39" s="38" t="s">
+      <c r="R39" s="42" t="s">
         <v>2086</v>
       </c>
-      <c r="S39" s="22" t="s">
+      <c r="S39" s="30" t="s">
         <v>2086</v>
       </c>
-      <c r="U39" s="52" t="s">
+      <c r="U39" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="V39" s="53">
+      <c r="V39" s="47">
         <v>11</v>
       </c>
-      <c r="W39" s="48" t="s">
+      <c r="W39" s="42" t="s">
         <v>2086</v>
       </c>
       <c r="X39" s="30" t="s">
         <v>2086</v>
       </c>
-      <c r="Y39" s="41"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
@@ -19139,18 +19184,6 @@
       <c r="K40">
         <v>16</v>
       </c>
-      <c r="P40" s="21" t="s">
-        <v>2097</v>
-      </c>
-      <c r="Q40" s="38">
-        <v>11</v>
-      </c>
-      <c r="R40" s="41" t="s">
-        <v>2100</v>
-      </c>
-      <c r="S40" s="43" t="s">
-        <v>2091</v>
-      </c>
     </row>
     <row r="41" spans="1:29" ht="17" thickBot="1">
       <c r="A41" t="s">
@@ -19177,16 +19210,8 @@
       <c r="K41">
         <v>16</v>
       </c>
-      <c r="P41" s="29" t="s">
-        <v>2098</v>
-      </c>
-      <c r="Q41" s="48">
-        <v>8</v>
-      </c>
-      <c r="R41" s="60"/>
-      <c r="S41" s="61"/>
       <c r="U41" s="13" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -19214,17 +19239,13 @@
       <c r="K42">
         <v>15</v>
       </c>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
       <c r="U42" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="V42" s="50">
+      <c r="V42" s="44">
         <v>11</v>
       </c>
-      <c r="W42" s="44" t="s">
+      <c r="W42" s="38" t="s">
         <v>2093</v>
       </c>
       <c r="X42" s="18" t="s">
@@ -19256,17 +19277,13 @@
       <c r="K43">
         <v>15</v>
       </c>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
       <c r="U43" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="V43" s="39">
+      <c r="V43" s="14">
         <v>3</v>
       </c>
-      <c r="W43" s="38" t="s">
+      <c r="W43" t="s">
         <v>2093</v>
       </c>
       <c r="X43" s="22" t="s">
@@ -19298,17 +19315,14 @@
       <c r="K44">
         <v>14</v>
       </c>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="U44" s="51" t="s">
+      <c r="P44" s="13"/>
+      <c r="U44" s="45" t="s">
         <v>2094</v>
       </c>
-      <c r="V44" s="39">
+      <c r="V44" s="14">
         <v>4</v>
       </c>
-      <c r="W44" s="38" t="s">
+      <c r="W44" t="s">
         <v>2093</v>
       </c>
       <c r="X44" s="22" t="s">
@@ -19340,17 +19354,13 @@
       <c r="K45">
         <v>13</v>
       </c>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
       <c r="U45" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="V45" s="37">
-        <v>2</v>
-      </c>
-      <c r="W45" s="38" t="s">
+      <c r="V45" s="16">
+        <v>2</v>
+      </c>
+      <c r="W45" t="s">
         <v>2086</v>
       </c>
       <c r="X45" s="22" t="s">
@@ -19382,17 +19392,13 @@
       <c r="K46">
         <v>13</v>
       </c>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
       <c r="U46" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="V46" s="37">
+      <c r="V46" s="16">
         <v>3</v>
       </c>
-      <c r="W46" s="38" t="s">
+      <c r="W46" t="s">
         <v>2086</v>
       </c>
       <c r="X46" s="22" t="s">
@@ -19424,17 +19430,13 @@
       <c r="K47">
         <v>13</v>
       </c>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
       <c r="U47" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="V47" s="57">
+      <c r="V47" s="51">
         <v>5</v>
       </c>
-      <c r="W47" s="48" t="s">
+      <c r="W47" s="42" t="s">
         <v>2091</v>
       </c>
       <c r="X47" s="30" t="s">
@@ -19466,12 +19468,8 @@
       <c r="K48">
         <v>13</v>
       </c>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-    </row>
-    <row r="49" spans="1:19">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -19496,12 +19494,8 @@
       <c r="K49">
         <v>13</v>
       </c>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-    </row>
-    <row r="50" spans="1:19">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>1195</v>
       </c>
@@ -19526,10 +19520,8 @@
       <c r="K50">
         <v>13</v>
       </c>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-    </row>
-    <row r="51" spans="1:19">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>1196</v>
       </c>
@@ -19554,10 +19546,8 @@
       <c r="K51">
         <v>12</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-    </row>
-    <row r="52" spans="1:19">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>1198</v>
       </c>
@@ -19583,7 +19573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>1200</v>
       </c>
@@ -19609,7 +19599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>1202</v>
       </c>
@@ -19635,7 +19625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>1205</v>
       </c>
@@ -19661,7 +19651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>1206</v>
       </c>
@@ -19687,7 +19677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -19713,7 +19703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>1209</v>
       </c>
@@ -19739,7 +19729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>1211</v>
       </c>
@@ -19765,7 +19755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>1213</v>
       </c>
@@ -19791,7 +19781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>1215</v>
       </c>
@@ -19817,7 +19807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>1216</v>
       </c>
@@ -19843,7 +19833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>1217</v>
       </c>
@@ -19869,7 +19859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>1218</v>
       </c>
@@ -19895,7 +19885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -19921,7 +19911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>1220</v>
       </c>
@@ -19947,7 +19937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -19973,7 +19963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>1223</v>
       </c>
@@ -19999,7 +19989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>1225</v>
       </c>
@@ -20025,7 +20015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>1227</v>
       </c>
@@ -20051,7 +20041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>1229</v>
       </c>
@@ -20077,7 +20067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -20103,7 +20093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>1231</v>
       </c>
@@ -20129,7 +20119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>1232</v>
       </c>
@@ -20155,7 +20145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>1233</v>
       </c>
@@ -20181,7 +20171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>1235</v>
       </c>
@@ -20207,7 +20197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>1238</v>
       </c>
@@ -20233,7 +20223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>1240</v>
       </c>
@@ -20259,7 +20249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>1242</v>
       </c>
@@ -20285,7 +20275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>1245</v>
       </c>
@@ -20310,11 +20300,8 @@
       <c r="K80">
         <v>6</v>
       </c>
-      <c r="O80" s="38"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="41"/>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -20340,7 +20327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>1248</v>
       </c>
@@ -20366,7 +20353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>1249</v>
       </c>
@@ -20392,7 +20379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>1252</v>
       </c>
@@ -20418,7 +20405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>1254</v>
       </c>
@@ -20443,10 +20430,8 @@
       <c r="K85">
         <v>6</v>
       </c>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>1256</v>
       </c>
@@ -20472,7 +20457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>1258</v>
       </c>
@@ -20497,10 +20482,8 @@
       <c r="K87">
         <v>6</v>
       </c>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>1260</v>
       </c>
@@ -20526,7 +20509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>1262</v>
       </c>
@@ -20552,7 +20535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>1265</v>
       </c>
@@ -20578,7 +20561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>1266</v>
       </c>
@@ -20603,10 +20586,8 @@
       <c r="K91">
         <v>5</v>
       </c>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>618</v>
       </c>
@@ -20632,7 +20613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>230</v>
       </c>
@@ -20658,7 +20639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>1270</v>
       </c>
@@ -20684,7 +20665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>1273</v>
       </c>
@@ -20710,7 +20691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>1275</v>
       </c>
@@ -29986,7 +29967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21:AC23 AC35:AC36">
+  <conditionalFormatting sqref="AC35:AC36 AC21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>

--- a/Other/Exploratory search/Venues.xlsx
+++ b/Other/Exploratory search/Venues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Other/Exploratory search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93936375-1BF0-E746-81F6-4549881D55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B88E69E-56E4-4845-A58C-54B003C143FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{7011BBFD-0144-574F-A670-9349D6AC3912}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -17174,8 +17174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5876F606-540E-FE4D-BB47-CC941F3C00E4}">
   <dimension ref="A1:AD793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R10" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35:U39"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29988,5 +29988,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>